--- a/01_Data/MOLM13_group.xlsx
+++ b/01_Data/MOLM13_group.xlsx
@@ -1,69 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28712"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\RStudio\AML_project\Proteome\01_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140A74E1-CEE0-40EC-AFFA-1EE95E932DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_2W_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_WT_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_2W_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_6W_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_6W_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_6W_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_WT_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_WT_3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>MOLM13_2W_2</t>
+  </si>
+  <si>
+    <t>MOLM13_WT_1</t>
+  </si>
+  <si>
+    <t>MOLM13_2W_3</t>
+  </si>
+  <si>
+    <t>MOLM13_6W_1</t>
+  </si>
+  <si>
+    <t>MOLM13_6W_2</t>
+  </si>
+  <si>
+    <t>MOLM13_6W_3</t>
+  </si>
+  <si>
+    <t>MOLM13_WT_2</t>
+  </si>
+  <si>
+    <t>MOLM13_WT_3</t>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -91,9 +108,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -375,14 +401,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,72 +421,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>